--- a/DDAf_2020_tableau_annexe_Tab20.xlsx
+++ b/DDAf_2020_tableau_annexe_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="273">
   <si>
     <t>Tableau 20: Diversification des exportations</t>
   </si>
@@ -816,7 +816,7 @@
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraîbes"</t>
+    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
@@ -825,7 +825,97 @@
     <t>Calculs des auteurs basés sur la base de données en ligne COMTRADE WITS (récupérés le 25/10/2020).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -838,7 +928,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,6 +1051,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1139,9 +1238,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1160,6 +1261,7 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1181,7 +1283,9 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1221,7 +1325,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1237,7 +1343,9 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1253,7 +1361,9 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1311,7 +1421,9 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1323,6 +1435,9 @@
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1337,6 +1452,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1620,15 +1736,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="73" customWidth="1"/>
+    <col min="3" max="3" width="26" style="76" customWidth="1"/>
     <col min="4" max="4" width="4.90625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="4.90625" customWidth="1"/>
@@ -1637,11 +1753,11 @@
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="4.90625" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="4.90625" style="70" customWidth="1"/>
+    <col min="12" max="12" width="4.90625" style="72" customWidth="1"/>
     <col min="13" max="15" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1661,4542 +1777,4689 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>87.203495193703105</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="19">
         <v>5.95378883397259</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="19">
         <v>4.5584189968580997</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="19">
         <v>0.55040923910787998</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="20">
         <v>0.29132698664491002</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="21">
         <v>1</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="21">
         <v>2</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="20">
         <v>39.082164522332803</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="19">
         <v>91.0283205498542</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="19">
         <v>2.0620689788030999</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <v>0.78602122153484999</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="19">
         <v>0.73948618762367002</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="20">
         <v>0.64100635883478996</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="21">
         <v>1</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="21">
         <v>1</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="20">
         <v>40.337698033842202</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="24">
         <v>30.903872111677298</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="24">
         <v>14.1363001927055</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="24">
         <v>8.4379754293860003</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="24">
         <v>3.16790917481676</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="26">
         <v>2.8252208127462399</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="27">
         <v>16</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="27">
         <v>48</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="26">
         <v>40.537725751594202</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="24">
         <v>46.597970536405398</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="24">
         <v>8.4388805441943902</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="24">
         <v>5.78499349810025</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="24">
         <v>3.86970228433607</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="26">
         <v>3.1056737226591098</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="27">
         <v>8</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="27">
         <v>20</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="26">
         <v>46.796433164205901</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <v>69.001434205404294</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="24">
         <v>8.7552994764718708</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="24">
         <v>3.4649372199890198</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="24">
         <v>3.1918994490226398</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="26">
         <v>2.2237826571183898</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="27">
         <v>2</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="27">
         <v>7</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="26">
         <v>16.093036334978201</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="24">
         <v>30.208532939548999</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="24">
         <v>16.875165877306699</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="24">
         <v>5.0011247604772304</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="24">
         <v>4.1453542423892102</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="26">
         <v>4.0998832946069204</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="27">
         <v>10</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="27">
         <v>21</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="26">
         <v>40.6264010653748</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="24">
         <v>18.4410508247088</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="24">
         <v>13.4566266904537</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="24">
         <v>9.5624032041112894</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="24">
         <v>6.7923411784854197</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="26">
         <v>6.4547186362390301</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="27">
         <v>11</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="27">
         <v>31</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="26">
         <v>36.628527852365899</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="24">
         <v>14.501712394718</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="24">
         <v>8.8980435284624004</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="24">
         <v>7.2971330614302499</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="24">
         <v>6.1790044029922502</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="26">
         <v>5.9069822559350502</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="27">
         <v>46</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="27">
         <v>231</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="26">
         <v>29.907082604707401</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="19">
         <v>58.226014297097699</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="19">
         <v>22.254658592592499</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="19">
         <v>3.76615913675287</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="19">
         <v>2.0647239000037598</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="20">
         <v>1.44347306961023</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="21">
         <v>2</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="21">
         <v>8</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="20">
         <v>36.964838008738198</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="24">
         <v>29.977455140726999</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="24">
         <v>24.3257943831365</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="24">
         <v>8.8371794141557505</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="24">
         <v>5.6637152059060503</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="26">
         <v>4.1900897351086597</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="27">
         <v>6</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="27">
         <v>29</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="26">
         <v>25.457191943575602</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="33">
         <v>19.3280410233385</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="33">
         <v>9.4678320487243308</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="33">
         <v>9.4064496830116298</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="33">
         <v>5.4037771997488502</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="34">
         <v>4.7127966501066503</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="35">
         <v>25</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="35">
         <v>136</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="34">
         <v>32.553405068791598</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="24">
         <v>49.564801931245299</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="24">
         <v>18.5861713288506</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="24">
         <v>7.2857388428743102</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="24">
         <v>5.2459468806297496</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="26">
         <v>4.8693139385352104</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="27">
         <v>3</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="27">
         <v>7</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="26">
         <v>8.9635683148717291</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="24">
         <v>35.704105010396802</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="24">
         <v>10.3727415115928</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="24">
         <v>9.9887686576891799</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="24">
         <v>8.3021566439906707</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="26">
         <v>7.9087274913938801</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="27">
         <v>6</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="27">
         <v>11</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="26">
         <v>18.945126708223899</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>55.119841462840803</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="24">
         <v>18.195652839053398</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="24">
         <v>9.8677249202179294</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="24">
         <v>1.9832275738745</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="26">
         <v>1.3164567633103901</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="27">
         <v>3</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="27">
         <v>11</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="26">
         <v>15.939840046593501</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="19">
         <v>88.312112970938799</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>7.5554938962630498</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="19">
         <v>1.4279951392500501</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="19">
         <v>1.34135437988842</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="20">
         <v>0.5629035543898</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="21">
         <v>1</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="21">
         <v>2</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="20">
         <v>33.337277507167499</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>67.680261392719402</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>20.6852461466395</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="19">
         <v>2.5814900286113698</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="19">
         <v>1.6903135987803699</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="20">
         <v>1.5505900212642501</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="21">
         <v>2</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="21">
         <v>3</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="20">
         <v>72.385203029532406</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="19">
         <v>33.901702677744098</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>30.802559057769201</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="19">
         <v>11.0547750083394</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="19">
         <v>7.6765951986713903</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="20">
         <v>3.9450995713648198</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="21">
         <v>3</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="21">
         <v>6</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="20">
         <v>34.144043149106501</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="19">
         <v>63.100007156435602</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>23.7134433147151</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="19">
         <v>6.3157497363255404</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="19">
         <v>5.0952844211503301</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="20">
         <v>0.71448709131316002</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="21">
         <v>2</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="21">
         <v>3</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="20">
         <v>42.538703058901902</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="19">
         <v>60.959918878252999</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>20.223135593650699</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="19">
         <v>6.1344463748997899</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="19">
         <v>2.6777221964625602</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="20">
         <v>2.3747648674923099</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="21">
         <v>2</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="21">
         <v>5</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="20">
         <v>40.733590506417997</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="24">
         <v>41.252096377562701</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="24">
         <v>16.728496354186401</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="24">
         <v>3.5311480879353101</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="24">
         <v>2.90571661833149</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="26">
         <v>2.5957245376179099</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="27">
         <v>10</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="27">
         <v>53</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="26">
         <v>23.584652111701001</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="33">
         <v>46.100411618954602</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="33">
         <v>14.251143823505799</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="33">
         <v>7.9349679155991</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="33">
         <v>4.4486013531582502</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="34">
         <v>3.21447696951771</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="35">
         <v>5</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="35">
         <v>12</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="34">
         <v>32.450369237137998</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="24">
         <v>52.793906244675597</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="24">
         <v>19.520588639336001</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="24">
         <v>18.049233016064701</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="24">
         <v>6.28319451945009</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="26">
         <v>0.57183915438076005</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="27">
         <v>3</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="27">
         <v>3</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="26">
         <v>12.9065736953734</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="24">
         <v>14.8813731807883</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="24">
         <v>13.872066615231301</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="24">
         <v>9.8639642808717394</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="24">
         <v>5.7446933646565199</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="26">
         <v>3.5744584252923</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="27">
         <v>108</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="27">
         <v>434</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="26">
         <v>151.45587886897999</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="24">
         <v>51.548781692183702</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="24">
         <v>26.861429767415501</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="24">
         <v>20.028098113763502</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="24">
         <v>0.34045891792086003</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="26">
         <v>0.18137147485249</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="27">
         <v>2</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="27">
         <v>3</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="26">
         <v>32.800712006317397</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="24">
         <v>32.581394912455103</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="24">
         <v>13.9004308374057</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="24">
         <v>8.7677446480677705</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="24">
         <v>5.97162866434092</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="26">
         <v>3.5832529299049001</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="27">
         <v>11</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="27">
         <v>39</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="26">
         <v>8.7967536845139307</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="24">
         <v>24.912068179665901</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="24">
         <v>12.6906962637196</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="24">
         <v>4.1517223981018399</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="24">
         <v>2.7239906744745102</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="26">
         <v>2.7197523673766</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="27">
         <v>34</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="27">
         <v>106</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="26">
         <v>13.1718586057059</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="24">
         <v>27.9540762430704</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="24">
         <v>11.0706175536067</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="24">
         <v>6.3970381602692701</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="24">
         <v>4.8210122613083302</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="26">
         <v>3.5354180032160398</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="27">
         <v>15</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="27">
         <v>40</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="26">
         <v>31.461566902023499</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="24">
         <v>13.4494083303753</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="24">
         <v>5.1830667650634199</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="24">
         <v>5.1026457162374701</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="24">
         <v>4.9337618242750398</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="26">
         <v>4.0888905904386403</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="27">
         <v>45</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="27">
         <v>116</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="26">
         <v>39.384822780867196</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="24">
         <v>62.762143178329197</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="24">
         <v>7.57828058147168</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="24">
         <v>6.6277745144903202</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="24">
         <v>5.9830065090653903</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="26">
         <v>5.7184463339669103</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="27">
         <v>3</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="27">
         <v>7</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="26">
         <v>21.213780917650901</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="24">
         <v>41.989092393323197</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="24">
         <v>40.929054855565802</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="24">
         <v>1.70490813242849</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="24">
         <v>1.27981866215403</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="26">
         <v>1.2196227912967501</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="27">
         <v>2</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="27">
         <v>8</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="26">
         <v>106.342977552677</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="24">
         <v>26.0670520081758</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="24">
         <v>21.032595359458998</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="24">
         <v>14.847190423102401</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="24">
         <v>8.0284744074993402</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="26">
         <v>7.6305350255803903</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="27">
         <v>5</v>
       </c>
-      <c r="N33" s="26">
+      <c r="N33" s="27">
         <v>11</v>
       </c>
-      <c r="O33" s="25">
+      <c r="O33" s="26">
         <v>23.7137457843527</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="19">
         <v>94.650784590935899</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>1.8664885099997099</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="19">
         <v>0.80220198590569003</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="19">
         <v>0.72257693686027002</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="20">
         <v>0.59609650076859</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="21">
         <v>1</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N34" s="21">
         <v>1</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="20">
         <v>62.848011256841403</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="24">
         <v>26.700669786308602</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="24">
         <v>23.814105621951398</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="24">
         <v>16.740609534742099</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="24">
         <v>11.0500910730497</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="26">
         <v>2.7646488391778798</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="27">
         <v>4</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="27">
         <v>11</v>
       </c>
-      <c r="O35" s="25">
+      <c r="O35" s="26">
         <v>14.0012602507501</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="24">
         <v>26.545498784322401</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="24">
         <v>13.682521444081599</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="24">
         <v>7.7458668485053996</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="24">
         <v>5.4429035259349403</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="26">
         <v>3.1769755148077099</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="27">
         <v>16</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="27">
         <v>50</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="26">
         <v>15.3646935546368</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="24">
         <v>36.385037671223699</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="24">
         <v>16.155376168953101</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="24">
         <v>3.11076714970668</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="24">
         <v>2.9433288332518401</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="26">
         <v>2.8209408980530601</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="27">
         <v>13</v>
       </c>
-      <c r="N37" s="26">
+      <c r="N37" s="27">
         <v>39</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="26">
         <v>16.719045429746298</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="33">
         <v>14.530181898731</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="33">
         <v>8.5191880793731904</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="33">
         <v>5.7744680033614104</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="I38" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="33">
         <v>5.0858131251650196</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="34">
         <v>3.8841377219475901</v>
       </c>
-      <c r="M38" s="34">
+      <c r="M38" s="35">
         <v>41</v>
       </c>
-      <c r="N38" s="34">
+      <c r="N38" s="35">
         <v>121</v>
       </c>
-      <c r="O38" s="33">
+      <c r="O38" s="34">
         <v>16.419953496698099</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="19">
         <v>41.032787004067899</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>34.2511587726163</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="19">
         <v>18.2501062290536</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="19">
         <v>2.0543582203037198</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="20">
         <v>1.16482077074952</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="21">
         <v>2</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="21">
         <v>3</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="20">
         <v>25.542566668697098</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="24">
         <v>17.5310091649261</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="24">
         <v>6.8144406900911001</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="24">
         <v>5.3950165027230703</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="24">
         <v>4.27474196644744</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="26">
         <v>3.3136652490260801</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="27">
         <v>59</v>
       </c>
-      <c r="N40" s="26">
+      <c r="N40" s="27">
         <v>145</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="26">
         <v>18.906438533826201</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="19">
         <v>86.836023938052904</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>4.8720196846338801</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="19">
         <v>3.5985276716311199</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="19">
         <v>2.6059295961519302</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="K41" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="20">
         <v>0.32303942853689999</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="21">
         <v>1</v>
       </c>
-      <c r="N41" s="20">
+      <c r="N41" s="21">
         <v>2</v>
       </c>
-      <c r="O41" s="19" t="s">
+      <c r="O41" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="19">
         <v>25.947435764833301</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>17.364254727847399</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="19">
         <v>15.837857313255601</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="19">
         <v>13.461037901710901</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="K42" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="20">
         <v>7.4510844606343003</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="21">
         <v>5</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="21">
         <v>8</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="20">
         <v>30.438463198411998</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="24">
         <v>11.616238878165399</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="24">
         <v>9.5738247419541906</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="24">
         <v>8.8580891579054004</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="24">
         <v>4.9759989402777602</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K43" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L43" s="26">
         <v>4.58846599462521</v>
       </c>
-      <c r="M43" s="26">
+      <c r="M43" s="27">
         <v>32</v>
       </c>
-      <c r="N43" s="26">
+      <c r="N43" s="27">
         <v>91</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="26">
         <v>36.672249302902998</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="24">
         <v>12.252382557008801</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="24">
         <v>5.97984732475713</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="24">
         <v>4.8947895832670998</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="24">
         <v>4.1041068988512199</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L44" s="26">
         <v>3.6627691713165902</v>
       </c>
-      <c r="M44" s="26">
+      <c r="M44" s="27">
         <v>46</v>
       </c>
-      <c r="N44" s="26">
+      <c r="N44" s="27">
         <v>124</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O44" s="26">
         <v>49.040294737230802</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="33">
         <v>32.5892179989537</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="33">
         <v>11.197641801212599</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="33">
         <v>7.4478694884729597</v>
       </c>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="33">
         <v>4.0567777399507703</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L45" s="33">
+      <c r="L45" s="34">
         <v>1.92999886472936</v>
       </c>
-      <c r="M45" s="34">
+      <c r="M45" s="35">
         <v>26</v>
       </c>
-      <c r="N45" s="34">
+      <c r="N45" s="35">
         <v>106</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="34">
         <v>24.870477871141301</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="24">
         <v>29.450121371061801</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="24">
         <v>28.379085866587999</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="24">
         <v>10.0647369472356</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="24">
         <v>6.5557160737683802</v>
       </c>
-      <c r="K46" s="24" t="s">
+      <c r="K46" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46" s="26">
         <v>3.6598744612026</v>
       </c>
-      <c r="M46" s="26">
+      <c r="M46" s="27">
         <v>5</v>
       </c>
-      <c r="N46" s="26">
+      <c r="N46" s="27">
         <v>11</v>
       </c>
-      <c r="O46" s="25">
+      <c r="O46" s="26">
         <v>26.999281506312901</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="24">
         <v>78.502107892181002</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="24">
         <v>7.5969751198045401</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="24">
         <v>3.7705755384255202</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="24">
         <v>2.9415178050145099</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="26">
         <v>1.5150367248071499</v>
       </c>
-      <c r="M47" s="26">
+      <c r="M47" s="27">
         <v>1</v>
       </c>
-      <c r="N47" s="26">
+      <c r="N47" s="27">
         <v>4</v>
       </c>
-      <c r="O47" s="25">
+      <c r="O47" s="26">
         <v>27.848755878053701</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="24">
         <v>50.0679684934791</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="24">
         <v>21.1307715841419</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="24">
         <v>3.5472564876674899</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="24">
         <v>3.4727340086714702</v>
       </c>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L48" s="26">
         <v>2.2412297945557</v>
       </c>
-      <c r="M48" s="26">
+      <c r="M48" s="27">
         <v>4</v>
       </c>
-      <c r="N48" s="26">
+      <c r="N48" s="27">
         <v>11</v>
       </c>
-      <c r="O48" s="25">
+      <c r="O48" s="26">
         <v>48.953163697300397</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="24">
         <v>31.865890478563401</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="24">
         <v>9.41809373945045</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="24">
         <v>8.4710811717960706</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="24">
         <v>7.1152166345140797</v>
       </c>
-      <c r="K49" s="24" t="s">
+      <c r="K49" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L49" s="26">
         <v>5.7578436536780497</v>
       </c>
-      <c r="M49" s="26">
+      <c r="M49" s="27">
         <v>8</v>
       </c>
-      <c r="N49" s="26">
+      <c r="N49" s="27">
         <v>18</v>
       </c>
-      <c r="O49" s="25">
+      <c r="O49" s="26">
         <v>22.594383702902299</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="24">
         <v>31.1622805182317</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="24">
         <v>12.7257622795582</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="24">
         <v>8.7861372597888696</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="24">
         <v>5.97000859930262</v>
       </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="26">
         <v>3.7842708844469599</v>
       </c>
-      <c r="M50" s="26">
+      <c r="M50" s="27">
         <v>10</v>
       </c>
-      <c r="N50" s="26">
+      <c r="N50" s="27">
         <v>21</v>
       </c>
-      <c r="O50" s="25">
+      <c r="O50" s="26">
         <v>18.864515910934099</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="19">
         <v>37.3421114983622</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>27.534773877605101</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="19">
         <v>10.9720049054695</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="19">
         <v>3.1042601156518299</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="K51" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="20">
         <v>2.9465208631005302</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="21">
         <v>3</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N51" s="21">
         <v>11</v>
       </c>
-      <c r="O51" s="19">
+      <c r="O51" s="20">
         <v>34.364464184445403</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="24">
         <v>45.786041997469098</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="24">
         <v>45.205573917735798</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="24">
         <v>1.8912922529471501</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="24">
         <v>1.2220558281698799</v>
       </c>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="26">
         <v>0.72290746724437005</v>
       </c>
-      <c r="M52" s="26">
+      <c r="M52" s="27">
         <v>2</v>
       </c>
-      <c r="N52" s="26">
+      <c r="N52" s="27">
         <v>2</v>
       </c>
-      <c r="O52" s="25">
+      <c r="O52" s="26">
         <v>32.8535685575321</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="24">
         <v>80.405491803568495</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="24">
         <v>13.239091372899001</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="24">
         <v>4.4837586747295202</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="24">
         <v>0.66968160984254999</v>
       </c>
-      <c r="K53" s="24" t="s">
+      <c r="K53" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="26">
         <v>0.21795838729924</v>
       </c>
-      <c r="M53" s="26">
+      <c r="M53" s="27">
         <v>1</v>
       </c>
-      <c r="N53" s="26">
+      <c r="N53" s="27">
         <v>2</v>
       </c>
-      <c r="O53" s="25">
+      <c r="O53" s="26">
         <v>25.755207878278998</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="24">
         <v>22.839123894085301</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="24">
         <v>21.6879549480247</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="24">
         <v>11.895828685669199</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="I54" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="24">
         <v>11.1024591269813</v>
       </c>
-      <c r="K54" s="24" t="s">
+      <c r="K54" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L54" s="26">
         <v>10.951890861397199</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M54" s="27">
         <v>5</v>
       </c>
-      <c r="N54" s="26">
+      <c r="N54" s="27">
         <v>8</v>
       </c>
-      <c r="O54" s="25">
+      <c r="O54" s="26">
         <v>20.291117247808899</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="24">
         <v>88.762742615635105</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="24">
         <v>3.5501013579651199</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="24">
         <v>1.28331880991018</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I55" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="24">
         <v>1.1337432460993799</v>
       </c>
-      <c r="K55" s="24" t="s">
+      <c r="K55" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="L55" s="25">
+      <c r="L55" s="26">
         <v>0.80754431284264006</v>
       </c>
-      <c r="M55" s="26">
+      <c r="M55" s="27">
         <v>1</v>
       </c>
-      <c r="N55" s="26">
+      <c r="N55" s="27">
         <v>2</v>
       </c>
-      <c r="O55" s="25">
+      <c r="O55" s="26">
         <v>24.668435026659299</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="24">
         <v>51.581004829723597</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="24">
         <v>28.3511329331136</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="24">
         <v>2.7245132808018102</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="24">
         <v>2.2478149981038502</v>
       </c>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="26">
         <v>1.8672312080435101</v>
       </c>
-      <c r="M56" s="26">
+      <c r="M56" s="27">
         <v>2</v>
       </c>
-      <c r="N56" s="26">
+      <c r="N56" s="27">
         <v>10</v>
       </c>
-      <c r="O56" s="25">
+      <c r="O56" s="26">
         <v>11.288756308661601</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="19">
         <v>78.344548036467501</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>10.7650639981822</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="19">
         <v>1.43467288638229</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="19">
         <v>1.1002387656068999</v>
       </c>
-      <c r="K57" s="17" t="s">
+      <c r="K57" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L57" s="20">
         <v>0.95221584264982995</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="21">
         <v>1</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="21">
         <v>3</v>
       </c>
-      <c r="O57" s="19">
+      <c r="O57" s="20">
         <v>16.586005508006</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="24">
         <v>24.057355541025</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="24">
         <v>21.588072219833101</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="24">
         <v>6.8846689069087796</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I58" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="24">
         <v>3.2548653094254898</v>
       </c>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="25">
+      <c r="L58" s="26">
         <v>3.11512771453694</v>
       </c>
-      <c r="M58" s="26">
+      <c r="M58" s="27">
         <v>14</v>
       </c>
-      <c r="N58" s="26">
+      <c r="N58" s="27">
         <v>29</v>
       </c>
-      <c r="O58" s="25">
+      <c r="O58" s="26">
         <v>23.5240880802959</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="24">
         <v>19.616694971782501</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="24">
         <v>14.3398005266992</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="24">
         <v>12.598928935041799</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="24">
         <v>12.2199147466195</v>
       </c>
-      <c r="K59" s="24" t="s">
+      <c r="K59" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L59" s="26">
         <v>4.6769509391012001</v>
       </c>
-      <c r="M59" s="26">
+      <c r="M59" s="27">
         <v>8</v>
       </c>
-      <c r="N59" s="26">
+      <c r="N59" s="27">
         <v>21</v>
       </c>
-      <c r="O59" s="25">
+      <c r="O59" s="26">
         <v>18.063353859464598</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="19">
         <v>43.026715362184198</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>12.0871165759081</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="19">
         <v>4.65806403083565</v>
       </c>
-      <c r="I60" s="17" t="s">
+      <c r="I60" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="19">
         <v>4.5069145074469503</v>
       </c>
-      <c r="K60" s="17" t="s">
+      <c r="K60" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L60" s="20">
         <v>4.3748375694911097</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="21">
         <v>7</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="21">
         <v>19</v>
       </c>
-      <c r="O60" s="19">
+      <c r="O60" s="20">
         <v>31.794313827143899</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="33">
         <v>49.067395447772</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="33">
         <v>14.638618895676601</v>
       </c>
-      <c r="G61" s="31" t="s">
+      <c r="G61" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="33">
         <v>6.7488962046959902</v>
       </c>
-      <c r="I61" s="31" t="s">
+      <c r="I61" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="J61" s="32">
+      <c r="J61" s="33">
         <v>5.6533671902366898</v>
       </c>
-      <c r="K61" s="31" t="s">
+      <c r="K61" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="34">
         <v>2.7713385475346</v>
       </c>
-      <c r="M61" s="34">
+      <c r="M61" s="35">
         <v>4</v>
       </c>
-      <c r="N61" s="34">
+      <c r="N61" s="35">
         <v>15</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="34">
         <v>20.309661250594601</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="39">
         <v>30.758902344145699</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="39">
         <v>8.1233135654597604</v>
       </c>
-      <c r="G62" s="37" t="s">
+      <c r="G62" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="38">
+      <c r="H62" s="39">
         <v>5.4155421273899798</v>
       </c>
-      <c r="I62" s="37" t="s">
+      <c r="I62" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J62" s="38">
+      <c r="J62" s="39">
         <v>3.62597850783881</v>
       </c>
-      <c r="K62" s="37" t="s">
+      <c r="K62" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L62" s="39">
+      <c r="L62" s="40">
         <v>3.2668741879015699</v>
       </c>
-      <c r="M62" s="40">
+      <c r="M62" s="41">
         <v>34</v>
       </c>
-      <c r="N62" s="40">
+      <c r="N62" s="41">
         <v>145</v>
       </c>
-      <c r="O62" s="39">
+      <c r="O62" s="40">
         <v>24.1793603351096</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D63" s="39">
         <v>6.6374621522543897</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="39">
         <v>6.3557062416699397</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="38">
+      <c r="H63" s="39">
         <v>6.3235829888495498</v>
       </c>
-      <c r="I63" s="37" t="s">
+      <c r="I63" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="38">
+      <c r="J63" s="39">
         <v>5.7783294892959596</v>
       </c>
-      <c r="K63" s="37" t="s">
+      <c r="K63" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="40">
         <v>4.2496703614807601</v>
       </c>
-      <c r="M63" s="40">
+      <c r="M63" s="41">
         <v>18</v>
       </c>
-      <c r="N63" s="40">
+      <c r="N63" s="41">
         <v>25</v>
       </c>
-      <c r="O63" s="39">
+      <c r="O63" s="40">
         <v>29.092718545867399</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A64" s="41"/>
-      <c r="B64" s="42" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="44">
+      <c r="D64" s="45">
         <v>9.3123588252042193</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="44">
+      <c r="F64" s="45">
         <v>5.2688710104834602</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="H64" s="44">
+      <c r="H64" s="45">
         <v>3.3585721665728698</v>
       </c>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J64" s="44">
+      <c r="J64" s="45">
         <v>3.3324592331437599</v>
       </c>
-      <c r="K64" s="43" t="s">
+      <c r="K64" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="L64" s="45">
+      <c r="L64" s="46">
         <v>3.033010206173</v>
       </c>
-      <c r="M64" s="46">
+      <c r="M64" s="47">
         <v>92</v>
       </c>
-      <c r="N64" s="46">
+      <c r="N64" s="47">
         <v>245</v>
       </c>
-      <c r="O64" s="45">
+      <c r="O64" s="46">
         <v>24.914026288133002</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="41"/>
-      <c r="B65" s="47" t="s">
+      <c r="A65" s="42"/>
+      <c r="B65" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="D65" s="49">
+      <c r="D65" s="50">
         <v>7.7563075798368297</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="49">
+      <c r="F65" s="50">
         <v>5.7628029157557599</v>
       </c>
-      <c r="G65" s="48" t="s">
+      <c r="G65" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H65" s="49">
+      <c r="H65" s="50">
         <v>5.4282757383601599</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="49">
+      <c r="J65" s="50">
         <v>3.8263926381831799</v>
       </c>
-      <c r="K65" s="48" t="s">
+      <c r="K65" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="L65" s="45">
+      <c r="L65" s="46">
         <v>2.2304625608066702</v>
       </c>
-      <c r="M65" s="50">
+      <c r="M65" s="51">
         <v>147</v>
       </c>
-      <c r="N65" s="50">
+      <c r="N65" s="51">
         <v>363</v>
       </c>
-      <c r="O65" s="45">
+      <c r="O65" s="46">
         <v>23.806839338583401</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="41"/>
-      <c r="B66" s="47" t="s">
+      <c r="A66" s="42"/>
+      <c r="B66" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="45">
         <v>6.5284258611121704</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F66" s="44">
+      <c r="F66" s="45">
         <v>4.1720369319960398</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="45">
         <v>3.7821201114949599</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="45">
         <v>3.28038002850055</v>
       </c>
-      <c r="K66" s="43" t="s">
+      <c r="K66" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="L66" s="45">
+      <c r="L66" s="46">
         <v>2.5847362193702201</v>
       </c>
-      <c r="M66" s="46">
+      <c r="M66" s="47">
         <v>184</v>
       </c>
-      <c r="N66" s="46">
+      <c r="N66" s="47">
         <v>430</v>
       </c>
-      <c r="O66" s="45">
+      <c r="O66" s="46">
         <v>28.851484472523399</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="41"/>
-      <c r="B67" s="51" t="s">
+      <c r="A67" s="42"/>
+      <c r="B67" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="54">
         <v>26.318600914553102</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E67" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="53">
+      <c r="F67" s="54">
         <v>5.3348009674981398</v>
       </c>
-      <c r="G67" s="52" t="s">
+      <c r="G67" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H67" s="53">
+      <c r="H67" s="54">
         <v>4.4032044964899599</v>
       </c>
-      <c r="I67" s="52" t="s">
+      <c r="I67" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="54">
         <v>4.1828656601782503</v>
       </c>
-      <c r="K67" s="52" t="s">
+      <c r="K67" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L67" s="54">
+      <c r="L67" s="55">
         <v>3.0980234078718598</v>
       </c>
-      <c r="M67" s="55">
+      <c r="M67" s="56">
         <v>50</v>
       </c>
-      <c r="N67" s="55">
+      <c r="N67" s="56">
         <v>165</v>
       </c>
-      <c r="O67" s="54">
+      <c r="O67" s="55">
         <v>20.694807299167898</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="41"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="42"/>
+      <c r="B68" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D68" s="50">
         <v>39.290114334761</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="49">
+      <c r="F68" s="50">
         <v>8.9233227729911206</v>
       </c>
-      <c r="G68" s="48" t="s">
+      <c r="G68" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="49">
+      <c r="H68" s="50">
         <v>4.5164436211036003</v>
       </c>
-      <c r="I68" s="48" t="s">
+      <c r="I68" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="49">
+      <c r="J68" s="50">
         <v>2.9911167095871498</v>
       </c>
-      <c r="K68" s="48" t="s">
+      <c r="K68" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="L68" s="45">
+      <c r="L68" s="46">
         <v>2.7750975715166999</v>
       </c>
-      <c r="M68" s="50">
+      <c r="M68" s="51">
         <v>24</v>
       </c>
-      <c r="N68" s="50">
+      <c r="N68" s="51">
         <v>106</v>
       </c>
-      <c r="O68" s="45">
+      <c r="O68" s="46">
         <v>22.271628668598101</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="41"/>
-      <c r="B69" s="47" t="s">
+      <c r="A69" s="42"/>
+      <c r="B69" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="50">
         <v>19.683883628053302</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="49">
+      <c r="F69" s="50">
         <v>9.7265309668043791</v>
       </c>
-      <c r="G69" s="48" t="s">
+      <c r="G69" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="49">
+      <c r="H69" s="50">
         <v>9.4468974215523893</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="J69" s="49">
+      <c r="J69" s="50">
         <v>6.0491683701438603</v>
       </c>
-      <c r="K69" s="48" t="s">
+      <c r="K69" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="L69" s="45">
+      <c r="L69" s="46">
         <v>4.8263854495022898</v>
       </c>
-      <c r="M69" s="50">
+      <c r="M69" s="51">
         <v>29</v>
       </c>
-      <c r="N69" s="50">
+      <c r="N69" s="51">
         <v>94</v>
       </c>
-      <c r="O69" s="45">
+      <c r="O69" s="46">
         <v>15.902045042866799</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A70" s="41"/>
-      <c r="B70" s="47" t="s">
+      <c r="A70" s="42"/>
+      <c r="B70" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="49">
+      <c r="D70" s="50">
         <v>66.276775444366706</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="49">
+      <c r="F70" s="50">
         <v>6.9149614134748196</v>
       </c>
-      <c r="G70" s="48" t="s">
+      <c r="G70" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="49">
+      <c r="H70" s="50">
         <v>4.6000680581209901</v>
       </c>
-      <c r="I70" s="48" t="s">
+      <c r="I70" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="J70" s="49">
+      <c r="J70" s="50">
         <v>3.8496018136950099</v>
       </c>
-      <c r="K70" s="48" t="s">
+      <c r="K70" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="L70" s="45">
+      <c r="L70" s="46">
         <v>3.4909327108219799</v>
       </c>
-      <c r="M70" s="50">
+      <c r="M70" s="51">
         <v>3</v>
       </c>
-      <c r="N70" s="50">
+      <c r="N70" s="51">
         <v>9</v>
       </c>
-      <c r="O70" s="45">
+      <c r="O70" s="46">
         <v>34.5594824502029</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="41"/>
-      <c r="B71" s="47" t="s">
+      <c r="A71" s="42"/>
+      <c r="B71" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="50">
         <v>49.067395447772</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="49">
+      <c r="F71" s="50">
         <v>14.638618895676601</v>
       </c>
-      <c r="G71" s="48" t="s">
+      <c r="G71" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H71" s="50">
         <v>6.7488962046959902</v>
       </c>
-      <c r="I71" s="48" t="s">
+      <c r="I71" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="J71" s="49">
+      <c r="J71" s="50">
         <v>5.6533671902366898</v>
       </c>
-      <c r="K71" s="48" t="s">
+      <c r="K71" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="45">
+      <c r="L71" s="46">
         <v>2.7713385475346</v>
       </c>
-      <c r="M71" s="50">
+      <c r="M71" s="51">
         <v>4</v>
       </c>
-      <c r="N71" s="50">
+      <c r="N71" s="51">
         <v>15</v>
       </c>
-      <c r="O71" s="45">
+      <c r="O71" s="46">
         <v>20.309661250594601</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A72" s="41"/>
-      <c r="B72" s="47" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C72" s="48" t="s">
+      <c r="C72" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="49">
+      <c r="D72" s="50">
         <v>14.5225237093684</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F72" s="49">
+      <c r="F72" s="50">
         <v>13.9352751838516</v>
       </c>
-      <c r="G72" s="48" t="s">
+      <c r="G72" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="H72" s="49">
+      <c r="H72" s="50">
         <v>8.6528610568382902</v>
       </c>
-      <c r="I72" s="48" t="s">
+      <c r="I72" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J72" s="49">
+      <c r="J72" s="50">
         <v>8.1908543105360501</v>
       </c>
-      <c r="K72" s="48" t="s">
+      <c r="K72" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L72" s="45">
+      <c r="L72" s="46">
         <v>6.0960739142452596</v>
       </c>
-      <c r="M72" s="50">
+      <c r="M72" s="51">
         <v>25</v>
       </c>
-      <c r="N72" s="50">
+      <c r="N72" s="51">
         <v>85</v>
       </c>
-      <c r="O72" s="45">
+      <c r="O72" s="46">
         <v>14.4441038312529</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A73" s="41"/>
-      <c r="B73" s="47" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="49">
+      <c r="D73" s="50">
         <v>17.514962885392698</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F73" s="50">
         <v>9.1521942674798602</v>
       </c>
-      <c r="G73" s="48" t="s">
+      <c r="G73" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="49">
+      <c r="H73" s="50">
         <v>8.6908592333228896</v>
       </c>
-      <c r="I73" s="48" t="s">
+      <c r="I73" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J73" s="49">
+      <c r="J73" s="50">
         <v>4.8422320277889401</v>
       </c>
-      <c r="K73" s="48" t="s">
+      <c r="K73" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L73" s="45">
+      <c r="L73" s="46">
         <v>4.2300616452170399</v>
       </c>
-      <c r="M73" s="50">
+      <c r="M73" s="51">
         <v>31</v>
       </c>
-      <c r="N73" s="50">
+      <c r="N73" s="51">
         <v>145</v>
       </c>
-      <c r="O73" s="45">
+      <c r="O73" s="46">
         <v>31.200678442142099</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="41"/>
-      <c r="B74" s="47" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="45">
         <v>36.467884446037701</v>
       </c>
-      <c r="E74" s="43" t="s">
+      <c r="E74" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="44">
+      <c r="F74" s="45">
         <v>13.1698296987544</v>
       </c>
-      <c r="G74" s="43" t="s">
+      <c r="G74" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="44">
+      <c r="H74" s="45">
         <v>7.6110269432526101</v>
       </c>
-      <c r="I74" s="43" t="s">
+      <c r="I74" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J74" s="44">
+      <c r="J74" s="45">
         <v>4.5767736047249299</v>
       </c>
-      <c r="K74" s="43" t="s">
+      <c r="K74" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="L74" s="45">
+      <c r="L74" s="46">
         <v>2.42058443889943</v>
       </c>
-      <c r="M74" s="46">
+      <c r="M74" s="47">
         <v>14</v>
       </c>
-      <c r="N74" s="46">
+      <c r="N74" s="47">
         <v>54</v>
       </c>
-      <c r="O74" s="45">
+      <c r="O74" s="46">
         <v>32.253477458204003</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="41"/>
-      <c r="B75" s="51" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="54">
         <v>13.030940694263199</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="53">
+      <c r="F75" s="54">
         <v>5.3984866399700797</v>
       </c>
-      <c r="G75" s="52" t="s">
+      <c r="G75" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="H75" s="53">
+      <c r="H75" s="54">
         <v>4.4661445791517904</v>
       </c>
-      <c r="I75" s="52" t="s">
+      <c r="I75" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="J75" s="53">
+      <c r="J75" s="54">
         <v>3.9485263242698401</v>
       </c>
-      <c r="K75" s="52" t="s">
+      <c r="K75" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="L75" s="54">
+      <c r="L75" s="55">
         <v>2.2170990684812599</v>
       </c>
-      <c r="M75" s="55">
+      <c r="M75" s="56">
         <v>102</v>
       </c>
-      <c r="N75" s="55">
+      <c r="N75" s="56">
         <v>255</v>
       </c>
-      <c r="O75" s="54">
+      <c r="O75" s="55">
         <v>52.471898029127303</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A76" s="41"/>
-      <c r="B76" s="47" t="s">
+      <c r="A76" s="42"/>
+      <c r="B76" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="49">
+      <c r="D76" s="50">
         <v>13.4917385179732</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="F76" s="49">
+      <c r="F76" s="50">
         <v>6.59317431381589</v>
       </c>
-      <c r="G76" s="48" t="s">
+      <c r="G76" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="H76" s="49">
+      <c r="H76" s="50">
         <v>6.1123139873585801</v>
       </c>
-      <c r="I76" s="48" t="s">
+      <c r="I76" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="J76" s="49">
+      <c r="J76" s="50">
         <v>5.8155003783797703</v>
       </c>
-      <c r="K76" s="48" t="s">
+      <c r="K76" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L76" s="45">
+      <c r="L76" s="46">
         <v>3.8139475389628101</v>
       </c>
-      <c r="M76" s="50">
+      <c r="M76" s="51">
         <v>53</v>
       </c>
-      <c r="N76" s="50">
+      <c r="N76" s="51">
         <v>172</v>
       </c>
-      <c r="O76" s="45">
+      <c r="O76" s="46">
         <v>18.4200130515305</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="41"/>
-      <c r="B77" s="47" t="s">
+      <c r="A77" s="42"/>
+      <c r="B77" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="45">
         <v>6.6549537339600304</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="F77" s="44">
+      <c r="F77" s="45">
         <v>4.12255160114709</v>
       </c>
-      <c r="G77" s="43" t="s">
+      <c r="G77" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="H77" s="44">
+      <c r="H77" s="45">
         <v>3.6641853599630099</v>
       </c>
-      <c r="I77" s="43" t="s">
+      <c r="I77" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="44">
+      <c r="J77" s="45">
         <v>3.1719063960354399</v>
       </c>
-      <c r="K77" s="43" t="s">
+      <c r="K77" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="L77" s="45">
+      <c r="L77" s="46">
         <v>2.0689307274463098</v>
       </c>
-      <c r="M77" s="46">
+      <c r="M77" s="47">
         <v>202</v>
       </c>
-      <c r="N77" s="46">
+      <c r="N77" s="47">
         <v>446</v>
       </c>
-      <c r="O77" s="45">
+      <c r="O77" s="46">
         <v>49.408005039297898</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="41"/>
-      <c r="B78" s="51" t="s">
+      <c r="A78" s="42"/>
+      <c r="B78" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D78" s="54">
         <v>61.170945964784103</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E78" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="53">
+      <c r="F78" s="54">
         <v>10.6359166577494</v>
       </c>
-      <c r="G78" s="52" t="s">
+      <c r="G78" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="53">
+      <c r="H78" s="54">
         <v>4.5944348319893402</v>
       </c>
-      <c r="I78" s="52" t="s">
+      <c r="I78" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J78" s="53">
+      <c r="J78" s="54">
         <v>3.3758670760117302</v>
       </c>
-      <c r="K78" s="52" t="s">
+      <c r="K78" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L78" s="54">
+      <c r="L78" s="55">
         <v>3.3510337122133098</v>
       </c>
-      <c r="M78" s="55">
+      <c r="M78" s="56">
         <v>3</v>
       </c>
-      <c r="N78" s="55">
+      <c r="N78" s="56">
         <v>9</v>
       </c>
-      <c r="O78" s="54">
+      <c r="O78" s="55">
         <v>25.531060137361401</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="41"/>
-      <c r="B79" s="47" t="s">
+      <c r="A79" s="42"/>
+      <c r="B79" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="49">
+      <c r="D79" s="50">
         <v>45.121715135943198</v>
       </c>
-      <c r="E79" s="48" t="s">
+      <c r="E79" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="50">
         <v>10.889552871661399</v>
       </c>
-      <c r="G79" s="48" t="s">
+      <c r="G79" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H79" s="50">
         <v>7.6326482113603999</v>
       </c>
-      <c r="I79" s="48" t="s">
+      <c r="I79" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J79" s="49">
+      <c r="J79" s="50">
         <v>1.8475760240046799</v>
       </c>
-      <c r="K79" s="48" t="s">
+      <c r="K79" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L79" s="45">
+      <c r="L79" s="46">
         <v>1.6430432591141599</v>
       </c>
-      <c r="M79" s="50">
+      <c r="M79" s="51">
         <v>11</v>
       </c>
-      <c r="N79" s="50">
+      <c r="N79" s="51">
         <v>94</v>
       </c>
-      <c r="O79" s="45">
+      <c r="O79" s="46">
         <v>37.920841597008099</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A80" s="41"/>
-      <c r="B80" s="47" t="s">
+      <c r="A80" s="42"/>
+      <c r="B80" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="C80" s="48" t="s">
+      <c r="C80" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="49">
+      <c r="D80" s="50">
         <v>12.378198571967999</v>
       </c>
-      <c r="E80" s="48" t="s">
+      <c r="E80" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="49">
+      <c r="F80" s="50">
         <v>3.8489736828835799</v>
       </c>
-      <c r="G80" s="48" t="s">
+      <c r="G80" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="49">
+      <c r="H80" s="50">
         <v>3.7901233985383498</v>
       </c>
-      <c r="I80" s="48" t="s">
+      <c r="I80" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J80" s="49">
+      <c r="J80" s="50">
         <v>3.74138011782625</v>
       </c>
-      <c r="K80" s="48" t="s">
+      <c r="K80" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L80" s="45">
+      <c r="L80" s="46">
         <v>3.6440322196075101</v>
       </c>
-      <c r="M80" s="50">
+      <c r="M80" s="51">
         <v>87</v>
       </c>
-      <c r="N80" s="50">
+      <c r="N80" s="51">
         <v>240</v>
       </c>
-      <c r="O80" s="45">
+      <c r="O80" s="46">
         <v>23.409233850193601</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="41"/>
-      <c r="B81" s="47" t="s">
+      <c r="A81" s="42"/>
+      <c r="B81" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="45">
         <v>4.6463619531064602</v>
       </c>
-      <c r="E81" s="43" t="s">
+      <c r="E81" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F81" s="44">
+      <c r="F81" s="45">
         <v>3.70884690540076</v>
       </c>
-      <c r="G81" s="43" t="s">
+      <c r="G81" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="44">
+      <c r="H81" s="45">
         <v>3.0893858032705399</v>
       </c>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="J81" s="44">
+      <c r="J81" s="45">
         <v>2.9128846191889899</v>
       </c>
-      <c r="K81" s="43" t="s">
+      <c r="K81" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="L81" s="45">
+      <c r="L81" s="46">
         <v>2.5240596488937199</v>
       </c>
-      <c r="M81" s="46">
+      <c r="M81" s="47">
         <v>196</v>
       </c>
-      <c r="N81" s="46">
+      <c r="N81" s="47">
         <v>440</v>
       </c>
-      <c r="O81" s="45">
+      <c r="O81" s="46">
         <v>28.242680217993598</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A82" s="41"/>
-      <c r="B82" s="51" t="s">
+      <c r="A82" s="42"/>
+      <c r="B82" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="53">
+      <c r="D82" s="54">
         <v>21.660072643706801</v>
       </c>
-      <c r="E82" s="52" t="s">
+      <c r="E82" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="53">
+      <c r="F82" s="54">
         <v>9.2287175647478907</v>
       </c>
-      <c r="G82" s="52" t="s">
+      <c r="G82" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H82" s="53">
+      <c r="H82" s="54">
         <v>6.6059297406408399</v>
       </c>
-      <c r="I82" s="52" t="s">
+      <c r="I82" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J82" s="53">
+      <c r="J82" s="54">
         <v>6.2436841055605896</v>
       </c>
-      <c r="K82" s="52" t="s">
+      <c r="K82" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="L82" s="54">
+      <c r="L82" s="55">
         <v>5.2666768306888301</v>
       </c>
-      <c r="M82" s="55">
+      <c r="M82" s="56">
         <v>18</v>
       </c>
-      <c r="N82" s="55">
+      <c r="N82" s="56">
         <v>52</v>
       </c>
-      <c r="O82" s="54">
+      <c r="O82" s="55">
         <v>20.2056031410043</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A83" s="41"/>
-      <c r="B83" s="47" t="s">
+      <c r="A83" s="42"/>
+      <c r="B83" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="C83" s="48" t="s">
+      <c r="C83" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="49">
+      <c r="D83" s="50">
         <v>15.1397784843669</v>
       </c>
-      <c r="E83" s="48" t="s">
+      <c r="E83" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="50">
         <v>7.80326839797267</v>
       </c>
-      <c r="G83" s="48" t="s">
+      <c r="G83" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="H83" s="49">
+      <c r="H83" s="50">
         <v>6.65121577074515</v>
       </c>
-      <c r="I83" s="48" t="s">
+      <c r="I83" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J83" s="49">
+      <c r="J83" s="50">
         <v>4.0001823485349899</v>
       </c>
-      <c r="K83" s="48" t="s">
+      <c r="K83" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="L83" s="45">
+      <c r="L83" s="46">
         <v>3.8373475985177601</v>
       </c>
-      <c r="M83" s="50">
+      <c r="M83" s="51">
         <v>33</v>
       </c>
-      <c r="N83" s="50">
+      <c r="N83" s="51">
         <v>80</v>
       </c>
-      <c r="O83" s="45">
+      <c r="O83" s="46">
         <v>9.6981964103762497</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="41"/>
-      <c r="B84" s="47" t="s">
+      <c r="A84" s="42"/>
+      <c r="B84" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="49">
+      <c r="D84" s="50">
         <v>41.507683395831101</v>
       </c>
-      <c r="E84" s="48" t="s">
+      <c r="E84" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="49">
+      <c r="F84" s="50">
         <v>8.3918899010524601</v>
       </c>
-      <c r="G84" s="48" t="s">
+      <c r="G84" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="H84" s="49">
+      <c r="H84" s="50">
         <v>4.2569861239665503</v>
       </c>
-      <c r="I84" s="48" t="s">
+      <c r="I84" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="49">
+      <c r="J84" s="50">
         <v>4.2229232716717302</v>
       </c>
-      <c r="K84" s="48" t="s">
+      <c r="K84" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="L84" s="45">
+      <c r="L84" s="46">
         <v>2.2549244928255998</v>
       </c>
-      <c r="M84" s="50">
+      <c r="M84" s="51">
         <v>20</v>
       </c>
-      <c r="N84" s="50">
+      <c r="N84" s="51">
         <v>100</v>
       </c>
-      <c r="O84" s="45">
+      <c r="O84" s="46">
         <v>23.485689270975499</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="41"/>
-      <c r="B85" s="47" t="s">
+      <c r="A85" s="42"/>
+      <c r="B85" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C85" s="48" t="s">
+      <c r="C85" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="49">
+      <c r="D85" s="50">
         <v>5.2109677264043102</v>
       </c>
-      <c r="E85" s="48" t="s">
+      <c r="E85" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F85" s="49">
+      <c r="F85" s="50">
         <v>4.78402631089625</v>
       </c>
-      <c r="G85" s="48" t="s">
+      <c r="G85" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="49">
+      <c r="H85" s="50">
         <v>3.34449043899125</v>
       </c>
-      <c r="I85" s="48" t="s">
+      <c r="I85" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J85" s="49">
+      <c r="J85" s="50">
         <v>3.1761288669533601</v>
       </c>
-      <c r="K85" s="48" t="s">
+      <c r="K85" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="L85" s="45">
+      <c r="L85" s="46">
         <v>2.7862355029944101</v>
       </c>
-      <c r="M85" s="50">
+      <c r="M85" s="51">
         <v>124</v>
       </c>
-      <c r="N85" s="50">
+      <c r="N85" s="51">
         <v>311</v>
       </c>
-      <c r="O85" s="45">
+      <c r="O85" s="46">
         <v>25.432414137585699</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A86" s="41"/>
-      <c r="B86" s="47" t="s">
+      <c r="A86" s="42"/>
+      <c r="B86" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="49">
+      <c r="D86" s="50">
         <v>19.657398130906302</v>
       </c>
-      <c r="E86" s="48" t="s">
+      <c r="E86" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F86" s="49">
+      <c r="F86" s="50">
         <v>10.635672142088801</v>
       </c>
-      <c r="G86" s="48" t="s">
+      <c r="G86" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="49">
+      <c r="H86" s="50">
         <v>8.76791307960419</v>
       </c>
-      <c r="I86" s="48" t="s">
+      <c r="I86" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J86" s="49">
+      <c r="J86" s="50">
         <v>6.1302686643727302</v>
       </c>
-      <c r="K86" s="48" t="s">
+      <c r="K86" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="L86" s="45">
+      <c r="L86" s="46">
         <v>4.3794927353194399</v>
       </c>
-      <c r="M86" s="50">
+      <c r="M86" s="51">
         <v>24</v>
       </c>
-      <c r="N86" s="50">
+      <c r="N86" s="51">
         <v>135</v>
       </c>
-      <c r="O86" s="45">
+      <c r="O86" s="46">
         <v>31.381806793913</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="41"/>
-      <c r="B87" s="47" t="s">
+      <c r="A87" s="42"/>
+      <c r="B87" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="49">
+      <c r="D87" s="50">
         <v>8.3621220014762905</v>
       </c>
-      <c r="E87" s="48" t="s">
+      <c r="E87" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="F87" s="49">
+      <c r="F87" s="50">
         <v>5.8198835358177199</v>
       </c>
-      <c r="G87" s="48" t="s">
+      <c r="G87" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="H87" s="49">
+      <c r="H87" s="50">
         <v>5.0435756668732203</v>
       </c>
-      <c r="I87" s="48" t="s">
+      <c r="I87" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J87" s="49">
+      <c r="J87" s="50">
         <v>3.7839670486288699</v>
       </c>
-      <c r="K87" s="48" t="s">
+      <c r="K87" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L87" s="45">
+      <c r="L87" s="46">
         <v>2.75554791966298</v>
       </c>
-      <c r="M87" s="50">
+      <c r="M87" s="51">
         <v>159</v>
       </c>
-      <c r="N87" s="50">
+      <c r="N87" s="51">
         <v>385</v>
       </c>
-      <c r="O87" s="45">
+      <c r="O87" s="46">
         <v>25.426280318319399</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="41"/>
-      <c r="B88" s="47" t="s">
+      <c r="A88" s="42"/>
+      <c r="B88" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="44">
+      <c r="D88" s="45">
         <v>5.7423190811146796</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="44">
+      <c r="F88" s="45">
         <v>4.9532937068089904</v>
       </c>
-      <c r="G88" s="43" t="s">
+      <c r="G88" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="44">
+      <c r="H88" s="45">
         <v>4.3438001995792499</v>
       </c>
-      <c r="I88" s="43" t="s">
+      <c r="I88" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J88" s="44">
+      <c r="J88" s="45">
         <v>3.0589712327098102</v>
       </c>
-      <c r="K88" s="43" t="s">
+      <c r="K88" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="L88" s="45">
+      <c r="L88" s="46">
         <v>3.0251675245128302</v>
       </c>
-      <c r="M88" s="46">
+      <c r="M88" s="47">
         <v>170</v>
       </c>
-      <c r="N88" s="46">
+      <c r="N88" s="47">
         <v>405</v>
       </c>
-      <c r="O88" s="45">
+      <c r="O88" s="46">
         <v>32.823690463496199</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A89" s="41"/>
-      <c r="B89" s="51" t="s">
+      <c r="A89" s="42"/>
+      <c r="B89" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="C89" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="54">
         <v>35.686857076554404</v>
       </c>
-      <c r="E89" s="52" t="s">
+      <c r="E89" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="53">
+      <c r="F89" s="54">
         <v>12.1392764073818</v>
       </c>
-      <c r="G89" s="52" t="s">
+      <c r="G89" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H89" s="53">
+      <c r="H89" s="54">
         <v>4.7416519128472698</v>
       </c>
-      <c r="I89" s="52" t="s">
+      <c r="I89" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="J89" s="53">
+      <c r="J89" s="54">
         <v>4.65716539338655</v>
       </c>
-      <c r="K89" s="52" t="s">
+      <c r="K89" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L89" s="54">
+      <c r="L89" s="55">
         <v>3.1569992697744098</v>
       </c>
-      <c r="M89" s="55">
+      <c r="M89" s="56">
         <v>13</v>
       </c>
-      <c r="N89" s="55">
+      <c r="N89" s="56">
         <v>40</v>
       </c>
-      <c r="O89" s="54">
+      <c r="O89" s="55">
         <v>24.056085811687801</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A90" s="41"/>
-      <c r="B90" s="47" t="s">
+      <c r="A90" s="42"/>
+      <c r="B90" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="C90" s="48" t="s">
+      <c r="C90" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D90" s="49">
+      <c r="D90" s="50">
         <v>9.0905682076694294</v>
       </c>
-      <c r="E90" s="48" t="s">
+      <c r="E90" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="F90" s="49">
+      <c r="F90" s="50">
         <v>9.0803725667553099</v>
       </c>
-      <c r="G90" s="48" t="s">
+      <c r="G90" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="49">
+      <c r="H90" s="50">
         <v>8.8669338964281597</v>
       </c>
-      <c r="I90" s="48" t="s">
+      <c r="I90" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J90" s="49">
+      <c r="J90" s="50">
         <v>7.3163535809376299</v>
       </c>
-      <c r="K90" s="48" t="s">
+      <c r="K90" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="L90" s="45">
+      <c r="L90" s="46">
         <v>4.5623033318394999</v>
       </c>
-      <c r="M90" s="50">
+      <c r="M90" s="51">
         <v>31</v>
       </c>
-      <c r="N90" s="50">
+      <c r="N90" s="51">
         <v>82</v>
       </c>
-      <c r="O90" s="45">
+      <c r="O90" s="46">
         <v>19.100869750401799</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="41"/>
-      <c r="B91" s="47" t="s">
+      <c r="A91" s="42"/>
+      <c r="B91" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="C91" s="48" t="s">
+      <c r="C91" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D91" s="49">
+      <c r="D91" s="50">
         <v>18.581201528986998</v>
       </c>
-      <c r="E91" s="48" t="s">
+      <c r="E91" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="49">
+      <c r="F91" s="50">
         <v>9.2051433226702706</v>
       </c>
-      <c r="G91" s="48" t="s">
+      <c r="G91" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H91" s="49">
+      <c r="H91" s="50">
         <v>4.4707704421457999</v>
       </c>
-      <c r="I91" s="48" t="s">
+      <c r="I91" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="J91" s="49">
+      <c r="J91" s="50">
         <v>4.08389236119271</v>
       </c>
-      <c r="K91" s="48" t="s">
+      <c r="K91" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L91" s="45">
+      <c r="L91" s="46">
         <v>3.9467946981417201</v>
       </c>
-      <c r="M91" s="50">
+      <c r="M91" s="51">
         <v>32</v>
       </c>
-      <c r="N91" s="50">
+      <c r="N91" s="51">
         <v>90</v>
       </c>
-      <c r="O91" s="45">
+      <c r="O91" s="46">
         <v>41.346822834414901</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="41"/>
-      <c r="B92" s="47" t="s">
+      <c r="A92" s="42"/>
+      <c r="B92" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="49">
+      <c r="D92" s="50">
         <v>17.295212880593201</v>
       </c>
-      <c r="E92" s="48" t="s">
+      <c r="E92" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F92" s="49">
+      <c r="F92" s="50">
         <v>14.989522351521</v>
       </c>
-      <c r="G92" s="48" t="s">
+      <c r="G92" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="H92" s="49">
+      <c r="H92" s="50">
         <v>3.4597919616541302</v>
       </c>
-      <c r="I92" s="48" t="s">
+      <c r="I92" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J92" s="49">
+      <c r="J92" s="50">
         <v>2.6774437754998801</v>
       </c>
-      <c r="K92" s="48" t="s">
+      <c r="K92" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="L92" s="45">
+      <c r="L92" s="46">
         <v>2.4301826494997698</v>
       </c>
-      <c r="M92" s="50">
+      <c r="M92" s="51">
         <v>49</v>
       </c>
-      <c r="N92" s="50">
+      <c r="N92" s="51">
         <v>148</v>
       </c>
-      <c r="O92" s="45">
+      <c r="O92" s="46">
         <v>115.25920607931999</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A93" s="41"/>
-      <c r="B93" s="47" t="s">
+      <c r="A93" s="42"/>
+      <c r="B93" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="49">
+      <c r="D93" s="50">
         <v>20.476313164649302</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="49">
+      <c r="F93" s="50">
         <v>16.193866053412599</v>
       </c>
-      <c r="G93" s="48" t="s">
+      <c r="G93" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H93" s="49">
+      <c r="H93" s="50">
         <v>13.0370682511039</v>
       </c>
-      <c r="I93" s="48" t="s">
+      <c r="I93" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="J93" s="49">
+      <c r="J93" s="50">
         <v>8.0536585226399708</v>
       </c>
-      <c r="K93" s="48" t="s">
+      <c r="K93" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L93" s="45">
+      <c r="L93" s="46">
         <v>4.9909045349221204</v>
       </c>
-      <c r="M93" s="50">
+      <c r="M93" s="51">
         <v>10</v>
       </c>
-      <c r="N93" s="50">
+      <c r="N93" s="51">
         <v>50</v>
       </c>
-      <c r="O93" s="45">
+      <c r="O93" s="46">
         <v>20.6893937996674</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="41"/>
-      <c r="B94" s="47" t="s">
+      <c r="A94" s="42"/>
+      <c r="B94" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="45">
         <v>32.513666746873</v>
       </c>
-      <c r="E94" s="43" t="s">
+      <c r="E94" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F94" s="45">
         <v>10.7964534293799</v>
       </c>
-      <c r="G94" s="43" t="s">
+      <c r="G94" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H94" s="44">
+      <c r="H94" s="45">
         <v>4.2510677813819999</v>
       </c>
-      <c r="I94" s="43" t="s">
+      <c r="I94" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J94" s="44">
+      <c r="J94" s="45">
         <v>3.6464971510058399</v>
       </c>
-      <c r="K94" s="43" t="s">
+      <c r="K94" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L94" s="45">
+      <c r="L94" s="46">
         <v>2.6696407426943001</v>
       </c>
-      <c r="M94" s="46">
+      <c r="M94" s="47">
         <v>25</v>
       </c>
-      <c r="N94" s="46">
+      <c r="N94" s="47">
         <v>99</v>
       </c>
-      <c r="O94" s="45">
+      <c r="O94" s="46">
         <v>33.461021920940901</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A95" s="41"/>
-      <c r="B95" s="51" t="s">
+      <c r="A95" s="42"/>
+      <c r="B95" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="54">
         <v>52.488043315304303</v>
       </c>
-      <c r="E95" s="52" t="s">
+      <c r="E95" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F95" s="53">
+      <c r="F95" s="54">
         <v>6.5117303510809199</v>
       </c>
-      <c r="G95" s="52" t="s">
+      <c r="G95" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="53">
+      <c r="H95" s="54">
         <v>5.2805306425473999</v>
       </c>
-      <c r="I95" s="52" t="s">
+      <c r="I95" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="J95" s="53">
+      <c r="J95" s="54">
         <v>3.19647025032585</v>
       </c>
-      <c r="K95" s="52" t="s">
+      <c r="K95" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="L95" s="54">
+      <c r="L95" s="55">
         <v>2.23164102057429</v>
       </c>
-      <c r="M95" s="55">
+      <c r="M95" s="56">
         <v>8</v>
       </c>
-      <c r="N95" s="55">
+      <c r="N95" s="56">
         <v>35</v>
       </c>
-      <c r="O95" s="54">
+      <c r="O95" s="55">
         <v>20.443090452746599</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="41"/>
-      <c r="B96" s="47" t="s">
+      <c r="A96" s="42"/>
+      <c r="B96" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="49">
+      <c r="D96" s="50">
         <v>46.827160214548101</v>
       </c>
-      <c r="E96" s="48" t="s">
+      <c r="E96" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F96" s="49">
+      <c r="F96" s="50">
         <v>3.1064733888878</v>
       </c>
-      <c r="G96" s="48" t="s">
+      <c r="G96" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="H96" s="49">
+      <c r="H96" s="50">
         <v>3.0794011148641798</v>
       </c>
-      <c r="I96" s="48" t="s">
+      <c r="I96" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="J96" s="49">
+      <c r="J96" s="50">
         <v>2.8533487161342501</v>
       </c>
-      <c r="K96" s="48" t="s">
+      <c r="K96" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L96" s="45">
+      <c r="L96" s="46">
         <v>2.5179541808452899</v>
       </c>
-      <c r="M96" s="50">
+      <c r="M96" s="51">
         <v>23</v>
       </c>
-      <c r="N96" s="50">
+      <c r="N96" s="51">
         <v>98</v>
       </c>
-      <c r="O96" s="45">
+      <c r="O96" s="46">
         <v>20.654055520746201</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="41"/>
-      <c r="B97" s="56" t="s">
+      <c r="A97" s="42"/>
+      <c r="B97" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="58">
+      <c r="D97" s="59">
         <v>79.504473306567803</v>
       </c>
-      <c r="E97" s="57" t="s">
+      <c r="E97" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F97" s="58">
+      <c r="F97" s="59">
         <v>4.4549113322572502</v>
       </c>
-      <c r="G97" s="57" t="s">
+      <c r="G97" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H97" s="58">
+      <c r="H97" s="59">
         <v>2.8550125416914902</v>
       </c>
-      <c r="I97" s="57" t="s">
+      <c r="I97" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="J97" s="58">
+      <c r="J97" s="59">
         <v>2.47846721315172</v>
       </c>
-      <c r="K97" s="57" t="s">
+      <c r="K97" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L97" s="59">
+      <c r="L97" s="60">
         <v>2.3542901791191002</v>
       </c>
-      <c r="M97" s="60">
+      <c r="M97" s="61">
         <v>1</v>
       </c>
-      <c r="N97" s="60">
+      <c r="N97" s="61">
         <v>5</v>
       </c>
-      <c r="O97" s="59">
+      <c r="O97" s="60">
         <v>30.951290254316699</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98" s="61"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="63"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="63"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="65"/>
-      <c r="N98" s="65"/>
-      <c r="O98" s="64"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="66"/>
+      <c r="N98" s="66"/>
+      <c r="O98" s="65"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="B99" s="66"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="69"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
-      <c r="O99" s="70"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="71"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="73"/>
+      <c r="O99" s="72"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="B100" s="66"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="69"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="69"/>
-      <c r="M100" s="71"/>
-      <c r="N100" s="71"/>
-      <c r="O100" s="70"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="71"/>
+      <c r="M100" s="73"/>
+      <c r="N100" s="73"/>
+      <c r="O100" s="72"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="68"/>
-      <c r="I101" s="69"/>
-      <c r="J101" s="68"/>
-      <c r="K101" s="69"/>
-      <c r="M101" s="71"/>
-      <c r="N101" s="71"/>
-      <c r="O101" s="70"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="71"/>
+      <c r="M101" s="73"/>
+      <c r="N101" s="73"/>
+      <c r="O101" s="72"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="B102" s="66"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="69"/>
-      <c r="M102" s="71"/>
-      <c r="N102" s="71"/>
-      <c r="O102" s="70"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="71"/>
+      <c r="M102" s="73"/>
+      <c r="N102" s="73"/>
+      <c r="O102" s="72"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B103" s="68"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="71"/>
+      <c r="M103" s="73"/>
+      <c r="N103" s="73"/>
+      <c r="O103" s="72"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B104" s="68"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="71"/>
+      <c r="M104" s="73"/>
+      <c r="N104" s="73"/>
+      <c r="O104" s="72"/>
     </row>
     <row r="105" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="72" t="s">
+      <c r="B105" s="74" t="s">
         <v>267</v>
       </c>
+      <c r="C105" s="69"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="71"/>
+      <c r="M105" s="73"/>
+      <c r="N105" s="73"/>
+      <c r="O105" s="72"/>
+    </row>
+    <row r="106" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="74"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="70"/>
+      <c r="K106" s="71"/>
+      <c r="M106" s="73"/>
+      <c r="N106" s="73"/>
+      <c r="O106" s="72"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B107" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" s="69"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="71"/>
+      <c r="M107" s="73"/>
+      <c r="N107" s="73"/>
+      <c r="O107" s="72"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B108" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" s="69"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="71"/>
+      <c r="M108" s="73"/>
+      <c r="N108" s="73"/>
+      <c r="O108" s="72"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B109" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="69"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="71"/>
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+      <c r="O109" s="72"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B110" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" s="69"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="71"/>
+      <c r="M110" s="73"/>
+      <c r="N110" s="73"/>
+      <c r="O110" s="72"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B111" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" s="69"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="71"/>
+      <c r="M111" s="73"/>
+      <c r="N111" s="73"/>
+      <c r="O111" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B105" r:id="rId1"/>
+    <hyperlink ref="B105" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020."/>
+    <hyperlink ref="B107" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails."/>
+    <hyperlink ref="B108" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs."/>
+    <hyperlink ref="B109" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>